--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,79 +49,79 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
@@ -485,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,10 +490,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +551,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +601,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6948051948051948</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="C4">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +619,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>47</v>
+        <v>432</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3004291845493562</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,119 +669,71 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="L6">
+        <v>94</v>
+      </c>
+      <c r="M6">
+        <v>94</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5">
-        <v>0.9</v>
-      </c>
-      <c r="L5">
-        <v>36</v>
-      </c>
-      <c r="M5">
-        <v>36</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="K7">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L7">
         <v>68</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>0.875</v>
-      </c>
-      <c r="L6">
-        <v>21</v>
-      </c>
-      <c r="M6">
-        <v>21</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>64</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>28</v>
-      </c>
       <c r="M7">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -796,21 +745,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8046875</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -822,21 +771,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8431372549019608</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -848,21 +797,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -874,21 +823,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.775</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -900,21 +849,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -926,21 +875,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -952,21 +901,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L14">
         <v>25</v>
       </c>
-      <c r="K14">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L14">
-        <v>42</v>
-      </c>
       <c r="M14">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -978,21 +927,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1004,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1030,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1056,21 +1005,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>0.58</v>
+      </c>
+      <c r="L18">
         <v>29</v>
       </c>
-      <c r="K18">
-        <v>0.6575342465753424</v>
-      </c>
-      <c r="L18">
-        <v>48</v>
-      </c>
       <c r="M18">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1082,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6551724137931034</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1108,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.568075117370892</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1134,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5600000000000001</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1160,21 +1109,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5347222222222222</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L22">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1186,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5151515151515151</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1212,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.4651162790697674</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1238,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>69</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.4</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1264,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.3695652173913043</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1290,7 +1239,33 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>58</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0.297071129707113</v>
+      </c>
+      <c r="L27">
+        <v>71</v>
+      </c>
+      <c r="M27">
+        <v>71</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,18 +55,21 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -73,39 +79,39 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -116,9 +122,6 @@
   </si>
   <si>
     <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
@@ -490,10 +493,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -551,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5958904109589042</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -569,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -593,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -601,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1627906976744186</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -619,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>432</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -643,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -651,38 +654,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1587301587301587</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C5">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>422</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>159</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="L5">
-        <v>41</v>
-      </c>
-      <c r="M5">
-        <v>41</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -693,47 +696,71 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1798941798941799</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>155</v>
+      </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L6">
+        <v>97</v>
+      </c>
+      <c r="M6">
+        <v>97</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>15</v>
-      </c>
-      <c r="K6">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L6">
-        <v>94</v>
-      </c>
-      <c r="M6">
-        <v>94</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8292682926829268</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -745,21 +772,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8046875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -771,21 +798,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -797,21 +824,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -823,21 +850,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.775</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -849,21 +876,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7058823529411765</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -875,21 +902,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.704225352112676</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -901,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6944444444444444</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -927,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6875</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -953,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6792452830188679</v>
+        <v>0.675</v>
       </c>
       <c r="L16">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -979,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6349206349206349</v>
+        <v>0.66</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1005,15 +1032,15 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.58</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L18">
         <v>29</v>
@@ -1031,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L19">
         <v>28</v>
       </c>
-      <c r="K19">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L19">
-        <v>54</v>
-      </c>
       <c r="M19">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1057,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5625</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1083,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5091383812010444</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L21">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="M21">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1109,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>188</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.4943820224719101</v>
+        <v>0.4856396866840731</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1135,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>45</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4529411764705882</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L23">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1161,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>186</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4067796610169492</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L24">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="M24">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1187,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.3717948717948718</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1213,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3424657534246575</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1239,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.297071129707113</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L27">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M27">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1265,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
